--- a/TestData/SpotifyTestData.xlsx
+++ b/TestData/SpotifyTestData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abgoyal\Downloads\SpotifyAPIAutomation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DC8C5F-E980-4E3D-AC66-D8DF6D56C065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C370EF-B7BD-4749-AEDB-CE783AED204D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Albums" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>clientId</t>
   </si>
@@ -49,6 +50,27 @@
   </si>
   <si>
     <t>invalid_client</t>
+  </si>
+  <si>
+    <t>8081b234487e471082bf11068fb</t>
+  </si>
+  <si>
+    <t>95e38f735fed4b20861</t>
+  </si>
+  <si>
+    <t>albumID</t>
+  </si>
+  <si>
+    <t>Market</t>
+  </si>
+  <si>
+    <t>4aawyAB9vmqN3uQ7FjRGTy</t>
+  </si>
+  <si>
+    <t>tokenType</t>
+  </si>
+  <si>
+    <t>89aac6b76adf4bd8bf0e241f34eac0f3</t>
   </si>
 </sst>
 </file>
@@ -384,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -412,28 +434,87 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2">
-        <v>200</v>
+        <v>400</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="C3">
         <v>400</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>400</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859D71F6-8BF6-4ADF-A3D5-EDBBFEE55BBD}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/SpotifyTestData.xlsx
+++ b/TestData/SpotifyTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abgoyal\Downloads\SpotifyAPIAutomation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C370EF-B7BD-4749-AEDB-CE783AED204D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2153035-23CA-4B53-B5BE-365B604D4C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>clientId</t>
   </si>
@@ -493,15 +493,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859D71F6-8BF6-4ADF-A3D5-EDBBFEE55BBD}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -509,12 +509,21 @@
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>12</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/SpotifyTestData.xlsx
+++ b/TestData/SpotifyTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abgoyal\Downloads\SpotifyAPIAutomation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2153035-23CA-4B53-B5BE-365B604D4C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70542430-F0FD-4CA6-B098-677ED9E895A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/TestData/SpotifyTestData.xlsx
+++ b/TestData/SpotifyTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abgoyal\Downloads\SpotifyAPIAutomation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70542430-F0FD-4CA6-B098-677ED9E895A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8BF3C9-BF67-4BD3-8F3A-97EC7DFA7290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>clientId</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>89aac6b76adf4bd8bf0e241f34eac0f3</t>
+  </si>
+  <si>
+    <t>INVALID_TOKEN</t>
+  </si>
+  <si>
+    <t>Invalid access token</t>
   </si>
 </sst>
 </file>
@@ -493,13 +499,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859D71F6-8BF6-4ADF-A3D5-EDBBFEE55BBD}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -526,6 +535,20 @@
         <v>200</v>
       </c>
     </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>401</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/SpotifyTestData.xlsx
+++ b/TestData/SpotifyTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abgoyal\Downloads\SpotifyAPIAutomation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8BF3C9-BF67-4BD3-8F3A-97EC7DFA7290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CBE74F-C556-452B-9469-C6144F7DF18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>clientId</t>
   </si>
@@ -77,13 +77,22 @@
   </si>
   <si>
     <t>Invalid access token</t>
+  </si>
+  <si>
+    <t>test_getSingleAlbum</t>
+  </si>
+  <si>
+    <t>dsa</t>
+  </si>
+  <si>
+    <t>method</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +109,12 @@
     <font>
       <sz val="9.8000000000000007"/>
       <color rgb="FF7A7E85"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6AAB73"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
@@ -124,12 +139,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -415,7 +433,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -499,10 +517,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859D71F6-8BF6-4ADF-A3D5-EDBBFEE55BBD}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -510,7 +528,7 @@
     <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -526,16 +544,22 @@
       <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="C2">
         <v>200</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -547,6 +571,9 @@
       </c>
       <c r="E3" t="s">
         <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/SpotifyTestData.xlsx
+++ b/TestData/SpotifyTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abgoyal\Downloads\SpotifyAPIAutomation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CBE74F-C556-452B-9469-C6144F7DF18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05FFACD-59D9-4B85-A1BD-AFDC39AC34CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>clientId</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>test_getSingleAlbum</t>
-  </si>
-  <si>
-    <t>dsa</t>
   </si>
   <si>
     <t>method</t>
@@ -520,12 +517,14 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -545,7 +544,7 @@
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -573,7 +572,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/SpotifyTestData.xlsx
+++ b/TestData/SpotifyTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abgoyal\Downloads\SpotifyAPIAutomation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05FFACD-59D9-4B85-A1BD-AFDC39AC34CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DD61BD-725A-4591-95C1-E66B08ED5EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>clientId</t>
   </si>
@@ -40,9 +40,6 @@
     <t>95e38f735fed4b2086167f8b8ef82fd6</t>
   </si>
   <si>
-    <t>8081b234487e471082bf10068fbcf961</t>
-  </si>
-  <si>
     <t>expectedResult</t>
   </si>
   <si>
@@ -52,12 +49,6 @@
     <t>invalid_client</t>
   </si>
   <si>
-    <t>8081b234487e471082bf11068fb</t>
-  </si>
-  <si>
-    <t>95e38f735fed4b20861</t>
-  </si>
-  <si>
     <t>albumID</t>
   </si>
   <si>
@@ -83,13 +74,28 @@
   </si>
   <si>
     <t>method</t>
+  </si>
+  <si>
+    <t>Test Case Number</t>
+  </si>
+  <si>
+    <t>TC_001_GenerateAccessToken_01</t>
+  </si>
+  <si>
+    <t>TC_001_GenerateAccessToken_02</t>
+  </si>
+  <si>
+    <t>TC_001_GenerateAccessToken_03</t>
+  </si>
+  <si>
+    <t>TC_001_GenerateAccessToken_04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,30 +104,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FFBCBEC4"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FF7A7E85"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FF6AAB73"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -136,15 +158,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -427,84 +452,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2">
+        <v>200</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2">
+        <v>400</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
         <v>400</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
         <v>400</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>400</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>200</v>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -516,63 +559,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859D71F6-8BF6-4ADF-A3D5-EDBBFEE55BBD}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2">
+        <v>200</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>401</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2">
-        <v>200</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>401</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/SpotifyTestData.xlsx
+++ b/TestData/SpotifyTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abgoyal\Downloads\SpotifyAPIAutomation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DD61BD-725A-4591-95C1-E66B08ED5EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794388B7-32ED-40D8-87F1-8484B7C60B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,9 +76,6 @@
     <t>method</t>
   </si>
   <si>
-    <t>Test Case Number</t>
-  </si>
-  <si>
     <t>TC_001_GenerateAccessToken_01</t>
   </si>
   <si>
@@ -89,6 +86,9 @@
   </si>
   <si>
     <t>TC_001_GenerateAccessToken_04</t>
+  </si>
+  <si>
+    <t>testCaseNumber</t>
   </si>
 </sst>
 </file>
@@ -454,9 +454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -469,7 +467,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -486,7 +484,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -501,7 +499,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -518,7 +516,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -535,7 +533,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -552,6 +550,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/TestData/SpotifyTestData.xlsx
+++ b/TestData/SpotifyTestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abgoyal\Downloads\SpotifyAPIAutomation\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abgoyal\Downloads\SpotifyAPIAutomation\1-automate-albums-endpoints\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794388B7-32ED-40D8-87F1-8484B7C60B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E133D3-A15A-4394-87EC-3F08D470ADB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>clientId</t>
   </si>
@@ -89,6 +89,66 @@
   </si>
   <si>
     <t>testCaseNumber</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_01</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_02</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_03</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_04</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_05</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_06</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_07</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_08</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>invalid1234</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>EMPTY_TOKEN</t>
+  </si>
+  <si>
+    <t>EXPIRED_TOKEN</t>
+  </si>
+  <si>
+    <t>Invalid base62 id</t>
+  </si>
+  <si>
+    <t>Missing required field: ids</t>
+  </si>
+  <si>
+    <t>ACCESS_TOKEN</t>
+  </si>
+  <si>
+    <t>Unauthorized</t>
+  </si>
+  <si>
+    <t>Only valid bearer authentication supported</t>
+  </si>
+  <si>
+    <t>The access token expired</t>
   </si>
 </sst>
 </file>
@@ -126,18 +186,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -158,20 +212,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,7 +507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -466,19 +519,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -556,72 +609,197 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859D71F6-8BF6-4ADF-A3D5-EDBBFEE55BBD}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="18.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>200</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2">
+        <v>200</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2">
+        <v>400</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2">
+        <v>400</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2">
         <v>401</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2">
+        <v>400</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2">
+        <v>401</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>401</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestData/SpotifyTestData.xlsx
+++ b/TestData/SpotifyTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abgoyal\Downloads\SpotifyAPIAutomation\1-automate-albums-endpoints\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E133D3-A15A-4394-87EC-3F08D470ADB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E479AD-65D2-445E-A58D-C84DFBA1EB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="61">
   <si>
     <t>clientId</t>
   </si>
@@ -149,13 +149,73 @@
   </si>
   <si>
     <t>The access token expired</t>
+  </si>
+  <si>
+    <t>albumIDs</t>
+  </si>
+  <si>
+    <t>test_getMultipleAlbums</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_09</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_10</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_11</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_12</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_13</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_14</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_15</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_16</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_17</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_18</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_19</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_20</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_21</t>
+  </si>
+  <si>
+    <t>1klALx0u4AavZNEvC4LrTL,0ETFjACtuP2ADo6LFhL6HN,6126O4XLYAfzU3961ziahP,50o7kf2wLwVmOTVYJOTplm,1cTeNkeINtXiaMLlashAKs,0PT5m6hwPRrpBwIHVnvbFX,7vEJAtP3KgKSpOHVgwm3Eh,3PRoXYsngSwjEQWR5PsHWR,2AlPRfYeskAMxhJS00xjeP,0jTGHV5xqHPvEcwL8f6YU5,39Ti6Be9Ak2d6YbxlQo0Ba,1aYdiJk6XKeHWGO3FzHHTr,6QaVfG1pHYl1z15ZxkvVDW,1WMVvswNzB9i2UMh9svso5,3KzAvEXcqJKBF97HrXwlgf,6wCttLq0ADzkPgtRnUihLV,1vANZV20H5B4Fk6yf7Ot9a,2BtE7qm1qzM80p9vLSiXkj,1Ye7yrA7vAlQnoooj8yDXb,7C221PnWhYGv8Tc0xSbfdc</t>
+  </si>
+  <si>
+    <t>1klALx0u4AavZNEvC4LrTL,0ETFjACtuP2ADo6LFhL6HN,6126O4XLYAfzU3961ziahP,50o7kf2wLwVmOTVYJOTplm,1cTeNkeINtXiaMLlashAKs,0PT5m6hwPRrpBwIHVnvbFX,7vEJAtP3KgKSpOHVgwm3Eh,3PRoXYsngSwjEQWR5PsHWR,2AlPRfYeskAMxhJS00xjeP,0jTGHV5xqHPvEcwL8f6YU5,39Ti6Be9Ak2d6YbxlQo0Ba,1aYdiJk6XKeHWGO3FzHHTr,6QaVfG1pHYl1z15ZxkvVDW,1WMVvswNzB9i2UMh9svso5,3KzAvEXcqJKBF97HrXwlgf,6wCttLq0ADzkPgtRnUihLV,1vANZV20H5B4Fk6yf7Ot9a,2BtE7qm1qzM80p9vLSiXkj,1Ye7yrA7vAlQnoooj8yDXb,7C221PnWhYGv8Tc0xSbfdc,1iT3kcVgPXJRr5xdbZfdYV</t>
+  </si>
+  <si>
+    <t>1klALx0u4AavZNEvC4LrTL,0ETFjACtuP2ADo6LFhL6HN,6126O4XLYAfzU3961ziahP</t>
+  </si>
+  <si>
+    <t>1klALx0u4AvaNvECL4rTL,0ETFjACtuP2ADo6LFhL6HN,6126O4XLYAfz3u961ziahP</t>
+  </si>
+  <si>
+    <t>Too many ids requested</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +245,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -212,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -225,6 +296,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,7 +586,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.88671875" bestFit="1" customWidth="1"/>
@@ -518,7 +595,7 @@
     <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="18">
       <c r="A1" s="4" t="s">
         <v>20</v>
       </c>
@@ -535,7 +612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -550,7 +627,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -567,7 +644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -584,7 +661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -609,25 +686,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859D71F6-8BF6-4ADF-A3D5-EDBBFEE55BBD}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="100.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="18">
       <c r="A1" s="4" t="s">
         <v>20</v>
       </c>
@@ -635,170 +713,402 @@
         <v>7</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>200</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>200</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>400</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="2">
+      <c r="C5" s="7"/>
+      <c r="E5" s="2">
         <v>400</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>401</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>400</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>401</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>401</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2">
+        <v>400</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2">
+        <v>200</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="2">
+        <v>400</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="66">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="2">
+        <v>200</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="79.2">
+      <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="2">
+        <v>400</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="2">
+        <v>200</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="2">
+        <v>400</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="2">
+        <v>200</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="2">
+        <v>200</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="2">
+        <v>401</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="2">
+        <v>400</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="2">
+        <v>401</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="2">
+        <v>401</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TestData/SpotifyTestData.xlsx
+++ b/TestData/SpotifyTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abgoyal\Downloads\SpotifyAPIAutomation\1-automate-albums-endpoints\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E479AD-65D2-445E-A58D-C84DFBA1EB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105266FC-9CF2-4336-A0E2-8A0DD43FF6A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="87">
   <si>
     <t>clientId</t>
   </si>
@@ -209,6 +209,84 @@
   </si>
   <si>
     <t>Too many ids requested</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_22</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_23</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_24</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_25</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_26</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_33</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_34</t>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>limit</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_27_01</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_27_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>TC_002_Albums_28_01</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_28_02</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_29_01</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_29_02</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_30_01</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_30_02</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_31_01</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_31_02</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_32_01</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_32_02</t>
+  </si>
+  <si>
+    <t>test_getAlbumTracks</t>
+  </si>
+  <si>
+    <t>Invalid offset</t>
+  </si>
+  <si>
+    <t>Invalid limit</t>
   </si>
 </sst>
 </file>
@@ -686,26 +764,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859D71F6-8BF6-4ADF-A3D5-EDBBFEE55BBD}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="100.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="2"/>
+    <col min="5" max="6" width="8.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="18">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="18">
       <c r="A1" s="4" t="s">
         <v>20</v>
       </c>
@@ -719,36 +799,42 @@
         <v>8</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2">
+      <c r="G2" s="2">
         <v>200</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -758,31 +844,31 @@
       <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="2">
+      <c r="G3" s="2">
         <v>200</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="2">
-        <v>400</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2">
+        <v>400</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -790,17 +876,17 @@
         <v>31</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="E5" s="2">
-        <v>400</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2">
+        <v>400</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -810,190 +896,190 @@
       <c r="D6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="2">
+      <c r="G6" s="2">
         <v>401</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="2">
-        <v>400</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2">
+        <v>400</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="2">
+      <c r="G8" s="2">
         <v>401</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="2">
+      <c r="G9" s="2">
         <v>401</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="2">
-        <v>400</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2">
+        <v>400</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="2">
+      <c r="G11" s="2">
         <v>200</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="2">
-        <v>400</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2">
+        <v>400</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="66">
+    <row r="13" spans="1:10" ht="66">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="2">
+      <c r="G13" s="2">
         <v>200</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="79.2">
+    <row r="14" spans="1:10" ht="79.2">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="2">
-        <v>400</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2">
+        <v>400</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="2">
+      <c r="G15" s="2">
         <v>200</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="2">
-        <v>400</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2">
+        <v>400</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -1003,14 +1089,14 @@
       <c r="D17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="2">
+      <c r="G17" s="2">
         <v>200</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
@@ -1020,14 +1106,14 @@
       <c r="D18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="2">
+      <c r="G18" s="2">
         <v>200</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
@@ -1037,74 +1123,436 @@
       <c r="D19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="2">
+      <c r="G19" s="2">
         <v>401</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="2">
-        <v>400</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2">
+        <v>400</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="2">
+      <c r="G21" s="2">
         <v>401</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="2">
+      <c r="G22" s="2">
         <v>401</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="2">
+        <v>200</v>
+      </c>
+      <c r="J23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="2">
+        <v>200</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="2">
+        <v>400</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="2">
+        <v>401</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27" s="2">
+        <v>200</v>
+      </c>
+      <c r="J27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="2">
+        <v>10</v>
+      </c>
+      <c r="G28" s="2">
+        <v>200</v>
+      </c>
+      <c r="J28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="G29" s="2">
+        <v>400</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="2">
+        <v>400</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" s="2">
+        <v>200</v>
+      </c>
+      <c r="J31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="2">
+        <v>10</v>
+      </c>
+      <c r="G32" s="2">
+        <v>200</v>
+      </c>
+      <c r="J32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="G33" s="2">
+        <v>400</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34" s="2">
+        <v>400</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G35" s="2">
+        <v>400</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>400</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="2">
+        <v>51</v>
+      </c>
+      <c r="G37" s="2">
+        <v>400</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="2">
+        <v>100</v>
+      </c>
+      <c r="G38" s="2">
+        <v>400</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="G39" s="2">
+        <v>400</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="G40" s="2">
+        <v>401</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="G41" s="2">
+        <v>401</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J41" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/SpotifyTestData.xlsx
+++ b/TestData/SpotifyTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abgoyal\Downloads\SpotifyAPIAutomation\1-automate-albums-endpoints\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105266FC-9CF2-4336-A0E2-8A0DD43FF6A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E43535A-B1B6-4A85-AC2D-6C89AB9679DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Albums" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Albums!$A$1:$J$51</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="98">
   <si>
     <t>clientId</t>
   </si>
@@ -287,6 +290,39 @@
   </si>
   <si>
     <t>Invalid limit</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_35</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_36</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_37</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_38</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_39</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_40</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_41</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_42</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_43</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_44</t>
+  </si>
+  <si>
+    <t>test_saveAlbumForCurrentUser</t>
   </si>
 </sst>
 </file>
@@ -764,11 +800,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859D71F6-8BF6-4ADF-A3D5-EDBBFEE55BBD}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42:XFD42"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -781,7 +817,7 @@
     <col min="7" max="7" width="23.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
@@ -1555,6 +1591,179 @@
         <v>84</v>
       </c>
     </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" s="2">
+        <v>400</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="2">
+        <v>200</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" s="2">
+        <v>400</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J44" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="66">
+      <c r="A45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45" s="2">
+        <v>200</v>
+      </c>
+      <c r="J45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="79.2">
+      <c r="A46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G46" s="2">
+        <v>400</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G47" s="2">
+        <v>200</v>
+      </c>
+      <c r="J47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G48" s="2">
+        <v>400</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="2">
+        <v>400</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="2">
+        <v>401</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="2">
+        <v>401</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J51" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestData/SpotifyTestData.xlsx
+++ b/TestData/SpotifyTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abgoyal\Downloads\SpotifyAPIAutomation\1-automate-albums-endpoints\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E43535A-B1B6-4A85-AC2D-6C89AB9679DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA36E2C4-91A0-4E04-B165-BCDED87F7FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Albums" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Albums!$A$1:$J$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Albums!$A$1:$J$41</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="87">
   <si>
     <t>clientId</t>
   </si>
@@ -290,39 +290,6 @@
   </si>
   <si>
     <t>Invalid limit</t>
-  </si>
-  <si>
-    <t>TC_002_Albums_35</t>
-  </si>
-  <si>
-    <t>TC_002_Albums_36</t>
-  </si>
-  <si>
-    <t>TC_002_Albums_37</t>
-  </si>
-  <si>
-    <t>TC_002_Albums_38</t>
-  </si>
-  <si>
-    <t>TC_002_Albums_39</t>
-  </si>
-  <si>
-    <t>TC_002_Albums_40</t>
-  </si>
-  <si>
-    <t>TC_002_Albums_41</t>
-  </si>
-  <si>
-    <t>TC_002_Albums_42</t>
-  </si>
-  <si>
-    <t>TC_002_Albums_43</t>
-  </si>
-  <si>
-    <t>TC_002_Albums_44</t>
-  </si>
-  <si>
-    <t>test_saveAlbumForCurrentUser</t>
   </si>
 </sst>
 </file>
@@ -800,24 +767,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859D71F6-8BF6-4ADF-A3D5-EDBBFEE55BBD}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42:XFD56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="20.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.77734375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="100.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="23.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
@@ -826,942 +793,769 @@
         <v>20</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2">
         <v>200</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>200</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="2">
-        <v>400</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="2">
+        <v>400</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="G5" s="2">
-        <v>400</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="D5" s="7"/>
+      <c r="H5" s="2">
+        <v>400</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>401</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="2">
-        <v>400</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="2">
+        <v>400</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="2">
         <v>401</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="2">
         <v>401</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="2">
-        <v>400</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="2">
+        <v>400</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="2">
         <v>200</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="2">
-        <v>400</v>
-      </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="2">
+        <v>400</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="66">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <v>200</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="79.2">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="2">
-        <v>400</v>
-      </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="2">
+        <v>400</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>200</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="2">
-        <v>400</v>
-      </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="2">
+        <v>400</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H17" s="2">
         <v>200</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H18" s="2">
         <v>200</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="B19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="2">
+      <c r="H19" s="2">
         <v>401</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="2">
-        <v>400</v>
-      </c>
-      <c r="H20" s="2" t="s">
+      <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="2">
+        <v>400</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="B21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="2">
         <v>401</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="2">
+      <c r="B22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="2">
         <v>401</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="2">
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="2">
         <v>200</v>
-      </c>
-      <c r="J23" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="2">
+      <c r="H24" s="2">
         <v>200</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="J24" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="2">
-        <v>400</v>
-      </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="2">
+        <v>400</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="J25" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="2">
+      <c r="H26" s="2">
         <v>401</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="J26" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="2" t="s">
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="2">
+      <c r="H27" s="2">
         <v>200</v>
-      </c>
-      <c r="J27" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="2">
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="2">
         <v>10</v>
       </c>
-      <c r="G28" s="2">
+      <c r="H28" s="2">
         <v>200</v>
-      </c>
-      <c r="J28" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="2">
+      <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="2">
         <v>11.1</v>
       </c>
-      <c r="G29" s="2">
-        <v>400</v>
-      </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="2">
+        <v>400</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="J29" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G30" s="2">
-        <v>400</v>
-      </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="2">
+        <v>400</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="J30" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G31" s="2">
+      <c r="H31" s="2">
         <v>200</v>
-      </c>
-      <c r="J31" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="2">
+      <c r="B32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="2">
         <v>10</v>
       </c>
-      <c r="G32" s="2">
+      <c r="H32" s="2">
         <v>200</v>
-      </c>
-      <c r="J32" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="B33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="2">
         <v>11.1</v>
       </c>
-      <c r="G33" s="2">
-        <v>400</v>
-      </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" s="2">
+        <v>400</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="J33" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="B34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G34" s="2">
-        <v>400</v>
-      </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="2">
+        <v>400</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="J34" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="2">
+      <c r="B35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="2">
         <v>-1</v>
       </c>
-      <c r="G35" s="2">
-        <v>400</v>
-      </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" s="2">
+        <v>400</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="J35" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="2">
+      <c r="B36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="2">
         <v>0</v>
       </c>
-      <c r="G36" s="2">
-        <v>400</v>
-      </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" s="2">
+        <v>400</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="J36" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="2">
+      <c r="B37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="2">
         <v>51</v>
       </c>
-      <c r="G37" s="2">
-        <v>400</v>
-      </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="2">
+        <v>400</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="J37" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="2">
+      <c r="B38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="2">
         <v>100</v>
       </c>
-      <c r="G38" s="2">
-        <v>400</v>
-      </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="2">
+        <v>400</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="J38" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="9"/>
-      <c r="G39" s="2">
-        <v>400</v>
-      </c>
-      <c r="H39" s="2" t="s">
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="H39" s="2">
+        <v>400</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="J39" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="J39" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="9"/>
-      <c r="G40" s="2">
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="H40" s="2">
         <v>401</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="I40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="J40" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="J40" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="9"/>
-      <c r="G41" s="2">
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="H41" s="2">
         <v>401</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="I41" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="J41" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="J41" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G42" s="2">
-        <v>400</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J42" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" s="2">
-        <v>200</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J43" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G44" s="2">
-        <v>400</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J44" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="66">
-      <c r="A45" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G45" s="2">
-        <v>200</v>
-      </c>
-      <c r="J45" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="79.2">
-      <c r="A46" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G46" s="2">
-        <v>400</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J46" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G47" s="2">
-        <v>200</v>
-      </c>
-      <c r="J47" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G48" s="2">
-        <v>400</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J48" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G49" s="2">
-        <v>400</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J49" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" s="2">
-        <v>401</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J50" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G51" s="2">
-        <v>401</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J51" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/SpotifyTestData.xlsx
+++ b/TestData/SpotifyTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abgoyal\Downloads\SpotifyAPIAutomation\1-automate-albums-endpoints\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA36E2C4-91A0-4E04-B165-BCDED87F7FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0363D238-0B80-427E-8790-FE2905B434B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="103">
   <si>
     <t>clientId</t>
   </si>
@@ -290,6 +290,54 @@
   </si>
   <si>
     <t>Invalid limit</t>
+  </si>
+  <si>
+    <t>test_getNewReleases</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_51</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_52</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_53</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_45_01</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_45_02</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_46_01</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_47_01</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_48_01</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_49_01</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_50_01</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_46_02</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_47_02</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_48_02</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_49_02</t>
+  </si>
+  <si>
+    <t>TC_002_Albums_50_02</t>
   </si>
 </sst>
 </file>
@@ -767,11 +815,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859D71F6-8BF6-4ADF-A3D5-EDBBFEE55BBD}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42:XFD56"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1558,6 +1606,252 @@
         <v>34</v>
       </c>
     </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" t="s">
+        <v>87</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H42" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="G43" s="2">
+        <v>10</v>
+      </c>
+      <c r="H43" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+      <c r="G44" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="H44" s="2">
+        <v>400</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" t="s">
+        <v>87</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H45" s="2">
+        <v>400</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s">
+        <v>87</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H46" s="2">
+        <v>200</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" t="s">
+        <v>87</v>
+      </c>
+      <c r="F47" s="2">
+        <v>10</v>
+      </c>
+      <c r="H47" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" t="s">
+        <v>87</v>
+      </c>
+      <c r="F48" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="H48" s="2">
+        <v>400</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s">
+        <v>87</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H49" s="2">
+        <v>400</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" t="s">
+        <v>87</v>
+      </c>
+      <c r="F50" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H50" s="2">
+        <v>400</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" t="s">
+        <v>87</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2">
+        <v>400</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F52" s="2">
+        <v>51</v>
+      </c>
+      <c r="H52" s="2">
+        <v>400</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" t="s">
+        <v>87</v>
+      </c>
+      <c r="F53" s="2">
+        <v>100</v>
+      </c>
+      <c r="H53" s="2">
+        <v>400</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" t="s">
+        <v>87</v>
+      </c>
+      <c r="H54" s="2">
+        <v>400</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" t="s">
+        <v>87</v>
+      </c>
+      <c r="H55" s="2">
+        <v>401</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B56" t="s">
+        <v>87</v>
+      </c>
+      <c r="H56" s="2">
+        <v>401</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestData/SpotifyTestData.xlsx
+++ b/TestData/SpotifyTestData.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abgoyal\Downloads\SpotifyAPIAutomation\1-automate-albums-endpoints\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abgoyal\Downloads\SpotifyAPIAutomation\3-automate-artists-endpoints\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0363D238-0B80-427E-8790-FE2905B434B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11BC1DB-A679-44E4-92D9-DD9B7928DC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Albums" sheetId="2" r:id="rId2"/>
+    <sheet name="Artists" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Albums!$A$1:$J$41</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="116">
   <si>
     <t>clientId</t>
   </si>
@@ -338,6 +339,45 @@
   </si>
   <si>
     <t>TC_002_Albums_50_02</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_01</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_02</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_03</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_04</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_05</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_06</t>
+  </si>
+  <si>
+    <t>artistID</t>
+  </si>
+  <si>
+    <t>artistIDs</t>
+  </si>
+  <si>
+    <t>include_groups</t>
+  </si>
+  <si>
+    <t>0TnOYISbd1XQRBk9myaseg</t>
+  </si>
+  <si>
+    <t>test_getSingleArtist</t>
+  </si>
+  <si>
+    <t>0TnOYISbd1XYRBk9myaseg</t>
+  </si>
+  <si>
+    <t>Resource not found</t>
   </si>
 </sst>
 </file>
@@ -817,9 +857,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859D71F6-8BF6-4ADF-A3D5-EDBBFEE55BBD}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H48" sqref="H48"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1857,4 +1897,181 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F1B167-84E9-4FE9-B25C-371F6B7559D9}">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.21875" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="18">
+      <c r="A1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" s="2">
+        <v>200</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2">
+        <v>400</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="2">
+        <v>404</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="2">
+        <v>400</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="2">
+        <v>401</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="2">
+        <v>401</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/SpotifyTestData.xlsx
+++ b/TestData/SpotifyTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abgoyal\Downloads\SpotifyAPIAutomation\3-automate-artists-endpoints\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11BC1DB-A679-44E4-92D9-DD9B7928DC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7A5EF6-32B2-42A1-B8BE-C3270D64CCCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="130">
   <si>
     <t>clientId</t>
   </si>
@@ -378,6 +378,48 @@
   </si>
   <si>
     <t>Resource not found</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_07</t>
+  </si>
+  <si>
+    <t>test_getSeveralArtists</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_08</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_09</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_10</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_11</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_12</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_13</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_14</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_15</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_16</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_17</t>
+  </si>
+  <si>
+    <t>57Pk2GU0ABFYBbbcgYxqki,6WzRpISELf3YglGAh7TXcG,6z3HAUZpAyJ0ctsbAwAiw3,6uFn47ACjqYkc0jADwEdj1,4GssB27iJeqmfGxS94Tfij,4myFsmx2v6znDOJfn3IkbD,79s5XnCN4TJKTVMSmOx8Ep,3wn8nOygkHLUQ9dlXM1rKW,6AviHKu3ydzAePBmzEi62v,6mSJEqkgiBMtqZSXSMvb4s,0widrZ6KVNuIPhbM1rWPDR,19UUPNx5jccGgQ2GCIZkww,2g8HN35AnVGIk7B8yMucww,3lOMJTQTd6J34faYwASc33,3Jv1XgMPVjdN5xGfnRJ20s,4E5IFAXCob6QqZaJMTw5YN,6EDO9iiTtwNv6waLwa1UUq,5zd9TgduWbfFXwgnm3K3Rz,4BLbZo3DCqQXMzogWV1GNP,2Ct0MnmqHDvjLqpi5gxcSM,5sbooPcNgIE22DwO0VNGUJ,3cIjeDpRUFiKU5tDXEY7Aw,5lrWzVarOIEauzOloHRCDj,0So2sgVa8aJiARPl2P29u2,43U1bCDTZAhhY1Y8mCkTG4,3xvzR05d6KgexfzjJgDRDl,53dGCRXGyCUV5Ycoy6Md34,0fIffclhgJC5h8AdMMVvkp,25zlnOAzbVoOzIeXSvQFf1,47yD0e9MCRIB8dgUXPfyW3,26Fx8UbsC0BV4J1CdtuLAy,7vGRXiYWFk6NjUnsNjQJQd,1jaTQ3nqY3oAAYyCTbIvnM,0PvFJmanyNQMseIFrU708S,1EG6y4KL5c0T5UAT41d7VH,5rZlwNFl01HqLWBQGryKSm,1tkg4EHVoqnhR6iFEXb60y,6DbqCKweKwVkHgRv1CI53D,67gUqq3wVAztSquOpNZ4Xs,25G8NNFBnjXgWCGtyPa1Ax,1jDbQz6tr52WgScCTXMnaN,5mPSyjLatqB00IkPqRlbTE,0Jc8qF1mUPo1A96HE9QxZz,5z46NBsndcpz5sdywfdqul,61N12G2IDag927XDCmMDr8,0VOMBffX1llDu37yQUt3u3,4JYFFgmy2ZZWvhCh8aZbjP,5rpkYHBqreIuzSVrYWcNa1,5KzobobnQb7UZXKOUT249o,1sbEeUY8KsdvgiQi26JBFz</t>
+  </si>
+  <si>
+    <t>2CIMQHirSU0MQqyYHq0eOx,57dN52uHvrHOxijzpIgu3E,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6</t>
   </si>
 </sst>
 </file>
@@ -452,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -470,6 +512,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1901,25 +1949,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F1B167-84E9-4FE9-B25C-371F6B7559D9}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.21875" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="89.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1" ht="18">
@@ -2071,6 +2119,199 @@
         <v>34</v>
       </c>
     </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="2">
+        <v>400</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" s="2">
+        <v>200</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="2">
+        <v>400</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11" s="2">
+        <v>200</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="184.8">
+      <c r="A12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I12" s="2">
+        <v>200</v>
+      </c>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:11" ht="396">
+      <c r="A13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I13" s="2">
+        <v>400</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="2">
+        <v>200</v>
+      </c>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="2">
+        <v>400</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16" s="2">
+        <v>400</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I17" s="2">
+        <v>401</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18" s="2">
+        <v>401</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/SpotifyTestData.xlsx
+++ b/TestData/SpotifyTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abgoyal\Downloads\SpotifyAPIAutomation\3-automate-artists-endpoints\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7A5EF6-32B2-42A1-B8BE-C3270D64CCCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D1CEBC-F83B-4F14-88C3-1026F0B76E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="156">
   <si>
     <t>clientId</t>
   </si>
@@ -420,6 +420,84 @@
   </si>
   <si>
     <t>2CIMQHirSU0MQqyYHq0eOx,57dN52uHvrHOxijzpIgu3E,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6,1vCWHaC5f2uS3yhpwWbIA6</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_18</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_19</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_20</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_21</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_28</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_29</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_30</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_31</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_32</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_22_01</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_22_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>TC_003_Artists_23_01</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_23_02</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_24_01</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_24_02</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_25_01</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_25_02</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_26_01</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_26_02</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_27_01</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_27_02</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>single,appears_on</t>
+  </si>
+  <si>
+    <t>test_getArtistAlbums</t>
   </si>
 </sst>
 </file>
@@ -1949,17 +2027,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F1B167-84E9-4FE9-B25C-371F6B7559D9}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="89.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
@@ -2312,7 +2391,405 @@
         <v>34</v>
       </c>
     </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" t="s">
+        <v>114</v>
+      </c>
+      <c r="I19" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="9">
+        <v>400</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21" s="9">
+        <v>404</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" t="s">
+        <v>139</v>
+      </c>
+      <c r="I22" s="11">
+        <v>200</v>
+      </c>
+      <c r="J22" s="11"/>
+      <c r="K22" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H23" t="s">
+        <v>142</v>
+      </c>
+      <c r="I23" s="11">
+        <v>200</v>
+      </c>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="I24" s="11">
+        <v>200</v>
+      </c>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H25">
+        <v>11.1</v>
+      </c>
+      <c r="I25" s="9">
+        <v>400</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" t="s">
+        <v>75</v>
+      </c>
+      <c r="I26" s="9">
+        <v>400</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G27" t="s">
+        <v>142</v>
+      </c>
+      <c r="I27" s="11">
+        <v>200</v>
+      </c>
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
+      <c r="I28" s="11">
+        <v>200</v>
+      </c>
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G29">
+        <v>11.1</v>
+      </c>
+      <c r="I29" s="9">
+        <v>400</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I30" s="9">
+        <v>400</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G31">
+        <v>-1</v>
+      </c>
+      <c r="I31" s="9">
+        <v>400</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="I32" s="9">
+        <v>400</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G33">
+        <v>51</v>
+      </c>
+      <c r="I33" s="9">
+        <v>400</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G34">
+        <v>100</v>
+      </c>
+      <c r="I34" s="9">
+        <v>400</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" t="s">
+        <v>153</v>
+      </c>
+      <c r="I35" s="11">
+        <v>200</v>
+      </c>
+      <c r="J35" s="11"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" t="s">
+        <v>154</v>
+      </c>
+      <c r="I36" s="11">
+        <v>200</v>
+      </c>
+      <c r="J36" s="11"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I37" s="2">
+        <v>400</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I38" s="2">
+        <v>401</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I39" s="2">
+        <v>401</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestData/SpotifyTestData.xlsx
+++ b/TestData/SpotifyTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abgoyal\Downloads\SpotifyAPIAutomation\3-automate-artists-endpoints\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D1CEBC-F83B-4F14-88C3-1026F0B76E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A7F9DB-28D0-49C5-82A1-202A8DC7C2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="171">
   <si>
     <t>clientId</t>
   </si>
@@ -498,6 +498,51 @@
   </si>
   <si>
     <t>test_getArtistAlbums</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_33</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_34</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_35</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_36</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_37</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_38</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_39</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_40</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_41</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_42</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_43</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_44</t>
+  </si>
+  <si>
+    <t>TC_003_Artists_45</t>
+  </si>
+  <si>
+    <t>test_getArtistTopTracks</t>
+  </si>
+  <si>
+    <t>test_getArtistRelatedArtists</t>
   </si>
 </sst>
 </file>
@@ -2027,18 +2072,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F1B167-84E9-4FE9-B25C-371F6B7559D9}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19:B39"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="89.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
@@ -2788,6 +2833,242 @@
         <v>34</v>
       </c>
     </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" t="s">
+        <v>114</v>
+      </c>
+      <c r="I40" s="11">
+        <v>200</v>
+      </c>
+      <c r="J40" s="11"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B41" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I41" s="9">
+        <v>400</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B42" t="s">
+        <v>169</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I42" s="9">
+        <v>404</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" t="s">
+        <v>114</v>
+      </c>
+      <c r="F43" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" s="11">
+        <v>200</v>
+      </c>
+      <c r="J43" s="11"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B44" t="s">
+        <v>169</v>
+      </c>
+      <c r="C44" t="s">
+        <v>114</v>
+      </c>
+      <c r="I44" s="2">
+        <v>400</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B45" t="s">
+        <v>169</v>
+      </c>
+      <c r="C45" t="s">
+        <v>114</v>
+      </c>
+      <c r="I45" s="2">
+        <v>401</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" t="s">
+        <v>169</v>
+      </c>
+      <c r="C46" t="s">
+        <v>114</v>
+      </c>
+      <c r="I46" s="2">
+        <v>401</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B47" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" t="s">
+        <v>114</v>
+      </c>
+      <c r="I47" s="11">
+        <v>200</v>
+      </c>
+      <c r="J47" s="11"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I48" s="9">
+        <v>400</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I49" s="9">
+        <v>404</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B50" t="s">
+        <v>170</v>
+      </c>
+      <c r="C50" t="s">
+        <v>114</v>
+      </c>
+      <c r="I50" s="2">
+        <v>400</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B51" t="s">
+        <v>170</v>
+      </c>
+      <c r="C51" t="s">
+        <v>114</v>
+      </c>
+      <c r="I51" s="2">
+        <v>401</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B52" t="s">
+        <v>170</v>
+      </c>
+      <c r="C52" t="s">
+        <v>114</v>
+      </c>
+      <c r="I52" s="2">
+        <v>401</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
